--- a/Day20_Web_Automation/lexus_data.xlsx
+++ b/Day20_Web_Automation/lexus_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9179,39 +9179,37 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lexus Is 300h R17 No Francija
-Mazs gada nodoklis 48eu. 
-Vidējais patēriņš </t>
+          <t>Продаю Lexus UX 250h Premium+ (177hp) в отличном состоянии, динамичный и эко</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/is/gbxfh.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/ux/cxkopx.html</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>UX</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2.5H</t>
+          <t>2.0H</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>235 thd.</t>
+          <t>21 thd.</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>18,750  €</t>
+          <t>35,700  €</t>
         </is>
       </c>
     </row>
@@ -9221,37 +9219,37 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Продаю Lexus UX 250h Premium+ (177hp) в отличном состоянии, динамичный и эко</t>
+          <t>Lexus CT 200H, Hybrid. Оригинальный пробег . Доступна вся история обслуживан</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/ux/cxkopx.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/ct/blmpdl.html</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>UX</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2.0H</t>
+          <t>1.8H</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>21 thd.</t>
+          <t>97 thd.</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>35,700  €</t>
+          <t>13,200  €</t>
         </is>
       </c>
     </row>
@@ -9261,12 +9259,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Lexus CT 200H, Hybrid. Оригинальный пробег . Доступна вся история обслуживан</t>
+          <t>Lexus CT 200h, hibrīda dzinējs, balta perlamutra krāsā. Tikko ievesta no Nīd</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/ct/blmpdl.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/ct/blolkc.html</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -9276,7 +9274,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -9286,12 +9284,12 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>97 thd.</t>
+          <t>254 thd.</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>13,200  €</t>
+          <t>10,990  €</t>
         </is>
       </c>
     </row>
@@ -9301,37 +9299,37 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Lexus CT 200h, hibrīda dzinējs, balta perlamutra krāsā. Tikko ievesta no Nīd</t>
+          <t>Kabriolets ar dzelzs jumtu. Motors 4.3 L 3Uz-Fe V8. Apkalpots Wess motors, n</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/ct/blolkc.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/sc/ixjif.html</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1.8H</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>254 thd.</t>
+          <t>230 thd.</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>10,990  €</t>
+          <t>12,500  €</t>
         </is>
       </c>
     </row>
@@ -9341,37 +9339,37 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Kabriolets ar dzelzs jumtu. Motors 4.3 L 3Uz-Fe V8. Apkalpots Wess motors, n</t>
+          <t>Pārdodu Lexus ES 300h Executive Plus komplektācija, 2019.gada oktobris, ziem</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/sc/ixjif.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/es/acxij.html</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>3.0H</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>230 thd.</t>
+          <t>37 thd.</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>12,500  €</t>
+          <t>45,000  €</t>
         </is>
       </c>
     </row>
@@ -9381,37 +9379,37 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pārdodu Lexus ES 300h Executive Plus komplektācija, 2019.gada oktobris, ziem</t>
+          <t>F-sport 3.5i 190kw. 4x4 automats labā tehniskā un vizuālā stāvoklī, bez nobr</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/es/acxij.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/rc/cbgkko.html</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>3.0H</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>37 thd.</t>
+          <t>17 thd.</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>45,000  €</t>
+          <t>25,500  €</t>
         </is>
       </c>
     </row>
@@ -9421,37 +9419,38 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>F-sport 3.5i 190kw. 4x4 automats labā tehniskā un vizuālā stāvoklī, bez nobr</t>
+          <t>Lexus LX 570 V8 A/t. 2012. gada. 5.7l benzīns, 285 Kw (388 Hp)
+- 8. Sēdvi</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/rc/cbgkko.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/lx/aocbf.html</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>17 thd.</t>
+          <t>182 thd.</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>25,500  €</t>
+          <t>49,900  €</t>
         </is>
       </c>
     </row>
@@ -9461,38 +9460,37 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Lexus LX 570 V8 A/t. 2012. gada. 5.7l benzīns, 285 Kw (388 Hp)
-- 8. Sēdvi</t>
+          <t>Редкий Lexus Es300 3.0 бенз/газ. Полный аналог легендарной Toyota Camry, тол</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/lx/aocbf.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/es/mfehf.html</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>182 thd.</t>
+          <t>116 thd.</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>49,900  €</t>
+          <t>3,250  €</t>
         </is>
       </c>
     </row>
@@ -9502,37 +9500,37 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Редкий Lexus Es300 3.0 бенз/газ. Полный аналог легендарной Toyota Camry, тол</t>
+          <t>Pārdod kompaktu un ekonomisku hibrīdauto, ceļa nodoklis tikai 12 Eur uz gadu</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/es/mfehf.html</t>
+          <t>https://ss.com/msg/en/transport/cars/lexus/ct/bljhjd.html</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.8H</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>116 thd.</t>
+          <t>171 thd.</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>3,250  €</t>
+          <t>10,800  €</t>
         </is>
       </c>
     </row>
@@ -9542,76 +9540,36 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pārdod kompaktu un ekonomisku hibrīdauto, ceļa nodoklis tikai 12 Eur uz gadu</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>https://ss.com/msg/en/transport/cars/lexus/ct/bljhjd.html</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>CT</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>1.8H</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>171 thd.</t>
-        </is>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>10,800  €</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
           <t>Lexus Es300H Limited Edition 2021.g. 2, 5 Hybrid
 Automašīna ir pārbaudīta L</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>https://ss.com/msg/en/transport/cars/lexus/es/clfgi.html</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="E226" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>2.5H</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>59 thd.</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>47,500  €</t>
         </is>
